--- a/templates/AutomationOrg/RSTK-8093-Inventory Location Adjustment.xlsx
+++ b/templates/AutomationOrg/RSTK-8093-Inventory Location Adjustment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B6F611-66C0-4FC6-AD94-B82B121DBC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA93957-42DA-4475-AF2B-09A8D85A40EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory Item" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>OH (On Hand Loc)</t>
   </si>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,31 +540,9 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -579,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFB8869-5566-4466-B219-3DC3C74DEDCA}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD1048576"/>
     </sheetView>
   </sheetViews>
